--- a/app/data/static/params/mozzarella_test.xlsx
+++ b/app/data/static/params/mozzarella_test.xlsx
@@ -870,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R78" activeCellId="0" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1011,6 +1011,9 @@
       <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q2" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R2" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1085,6 +1088,9 @@
       <c r="O3" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q3" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R3" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1159,6 +1165,9 @@
       <c r="O4" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q4" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R4" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1381,6 +1390,9 @@
       <c r="O7" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="Q7" s="0" t="n">
+        <v>518</v>
+      </c>
       <c r="R7" s="0" t="n">
         <v>518</v>
       </c>
@@ -1455,6 +1467,9 @@
       <c r="O8" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q8" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R8" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1529,6 +1544,9 @@
       <c r="O9" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q9" s="0" t="n">
+        <v>1200</v>
+      </c>
       <c r="R9" s="0" t="n">
         <v>1200</v>
       </c>
@@ -1606,6 +1624,9 @@
       <c r="O10" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q10" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R10" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1680,6 +1701,9 @@
       <c r="O11" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="Q11" s="0" t="n">
+        <v>728</v>
+      </c>
       <c r="R11" s="0" t="n">
         <v>728</v>
       </c>
@@ -1753,6 +1777,9 @@
       </c>
       <c r="O12" s="0" t="s">
         <v>60</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>728</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>728</v>
@@ -1828,6 +1855,9 @@
       <c r="O13" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q13" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R13" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1902,6 +1932,9 @@
       <c r="O14" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q14" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R14" s="0" t="n">
         <v>1020</v>
       </c>
@@ -1976,6 +2009,9 @@
       <c r="O15" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q15" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R15" s="0" t="n">
         <v>1020</v>
       </c>
@@ -2050,6 +2086,9 @@
       <c r="O16" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q16" s="0" t="n">
+        <v>518</v>
+      </c>
       <c r="R16" s="0" t="n">
         <v>518</v>
       </c>
@@ -2123,6 +2162,9 @@
       </c>
       <c r="O17" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>518</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>518</v>
@@ -2198,6 +2240,9 @@
       <c r="O18" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q18" s="0" t="n">
+        <v>518</v>
+      </c>
       <c r="R18" s="0" t="n">
         <v>518</v>
       </c>
@@ -2272,6 +2317,9 @@
       <c r="O19" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="Q19" s="0" t="n">
+        <v>728</v>
+      </c>
       <c r="R19" s="0" t="n">
         <v>728</v>
       </c>
@@ -2346,6 +2394,9 @@
       <c r="O20" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q20" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R20" s="0" t="n">
         <v>1020</v>
       </c>
@@ -2420,6 +2471,9 @@
       <c r="O21" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q21" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R21" s="0" t="n">
         <v>1020</v>
       </c>
@@ -2493,6 +2547,9 @@
       </c>
       <c r="O22" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>1020</v>
@@ -2642,6 +2699,9 @@
       <c r="O24" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q24" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R24" s="0" t="n">
         <v>1020</v>
       </c>
@@ -2716,6 +2776,9 @@
       <c r="O25" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q25" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R25" s="0" t="n">
         <v>1020</v>
       </c>
@@ -2864,6 +2927,9 @@
       <c r="O27" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q27" s="0" t="n">
+        <v>518</v>
+      </c>
       <c r="R27" s="0" t="n">
         <v>518</v>
       </c>
@@ -2938,6 +3004,9 @@
       <c r="O28" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q28" s="0" t="n">
+        <v>518</v>
+      </c>
       <c r="R28" s="0" t="n">
         <v>518</v>
       </c>
@@ -3012,6 +3081,9 @@
       <c r="O29" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q29" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R29" s="0" t="n">
         <v>1020</v>
       </c>
@@ -3085,6 +3157,9 @@
       </c>
       <c r="O30" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>1020</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>1020</v>
@@ -3160,6 +3235,9 @@
       <c r="O31" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q31" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R31" s="0" t="n">
         <v>1020</v>
       </c>
@@ -3234,6 +3312,9 @@
       <c r="O32" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q32" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R32" s="0" t="n">
         <v>1020</v>
       </c>
@@ -3308,6 +3389,9 @@
       <c r="O33" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q33" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R33" s="0" t="n">
         <v>1020</v>
       </c>
@@ -3382,6 +3466,9 @@
       <c r="O34" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="Q34" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R34" s="0" t="n">
         <v>600</v>
       </c>
@@ -3455,6 +3542,9 @@
       </c>
       <c r="O35" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>518</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>518</v>
@@ -3530,6 +3620,9 @@
       <c r="O36" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="Q36" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R36" s="0" t="n">
         <v>600</v>
       </c>
@@ -3604,6 +3697,9 @@
       <c r="O37" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="Q37" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R37" s="0" t="n">
         <v>600</v>
       </c>
@@ -3678,6 +3774,9 @@
       <c r="O38" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="Q38" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R38" s="0" t="n">
         <v>600</v>
       </c>
@@ -3752,6 +3851,9 @@
       <c r="O39" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q39" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R39" s="0" t="n">
         <v>1020</v>
       </c>
@@ -3826,6 +3928,9 @@
       <c r="O40" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="Q40" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R40" s="0" t="n">
         <v>600</v>
       </c>
@@ -3900,6 +4005,9 @@
       <c r="O41" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="Q41" s="0" t="n">
+        <v>518</v>
+      </c>
       <c r="R41" s="0" t="n">
         <v>518</v>
       </c>
@@ -3973,6 +4081,9 @@
       </c>
       <c r="O42" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>960</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>960</v>
@@ -4051,6 +4162,9 @@
       <c r="O43" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q43" s="0" t="n">
+        <v>1000</v>
+      </c>
       <c r="R43" s="0" t="n">
         <v>1000</v>
       </c>
@@ -4128,6 +4242,9 @@
       <c r="O44" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q44" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R44" s="0" t="n">
         <v>960</v>
       </c>
@@ -4205,6 +4322,9 @@
       <c r="O45" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q45" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R45" s="0" t="n">
         <v>960</v>
       </c>
@@ -4282,6 +4402,9 @@
       <c r="O46" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q46" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R46" s="0" t="n">
         <v>960</v>
       </c>
@@ -4359,6 +4482,9 @@
       <c r="O47" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q47" s="0" t="n">
+        <v>1200</v>
+      </c>
       <c r="R47" s="0" t="n">
         <v>1200</v>
       </c>
@@ -4436,6 +4562,9 @@
       <c r="O48" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q48" s="0" t="n">
+        <v>1200</v>
+      </c>
       <c r="R48" s="0" t="n">
         <v>1200</v>
       </c>
@@ -4513,6 +4642,9 @@
       <c r="O49" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q49" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R49" s="0" t="n">
         <v>960</v>
       </c>
@@ -4590,6 +4722,9 @@
       <c r="O50" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q50" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R50" s="0" t="n">
         <v>960</v>
       </c>
@@ -4667,6 +4802,9 @@
       <c r="O51" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q51" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R51" s="0" t="n">
         <v>960</v>
       </c>
@@ -4744,6 +4882,9 @@
       <c r="O52" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q52" s="0" t="n">
+        <v>1200</v>
+      </c>
       <c r="R52" s="0" t="n">
         <v>1200</v>
       </c>
@@ -4821,6 +4962,9 @@
       <c r="O53" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q53" s="0" t="n">
+        <v>1200</v>
+      </c>
       <c r="R53" s="0" t="n">
         <v>1200</v>
       </c>
@@ -4898,6 +5042,9 @@
       <c r="O54" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q54" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R54" s="0" t="n">
         <v>600</v>
       </c>
@@ -4975,6 +5122,9 @@
       <c r="O55" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="Q55" s="0" t="n">
+        <v>840</v>
+      </c>
       <c r="R55" s="0" t="n">
         <v>840</v>
       </c>
@@ -5052,6 +5202,9 @@
       <c r="O56" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q56" s="0" t="n">
+        <v>876</v>
+      </c>
       <c r="R56" s="0" t="n">
         <v>876</v>
       </c>
@@ -5129,6 +5282,9 @@
       <c r="O57" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q57" s="0" t="n">
+        <v>876</v>
+      </c>
       <c r="R57" s="0" t="n">
         <v>876</v>
       </c>
@@ -5206,6 +5362,9 @@
       <c r="O58" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q58" s="0" t="n">
+        <v>702</v>
+      </c>
       <c r="R58" s="0" t="n">
         <v>702</v>
       </c>
@@ -5283,6 +5442,9 @@
       <c r="O59" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q59" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R59" s="0" t="n">
         <v>1020</v>
       </c>
@@ -5360,6 +5522,9 @@
       <c r="O60" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q60" s="0" t="n">
+        <v>876</v>
+      </c>
       <c r="R60" s="0" t="n">
         <v>876</v>
       </c>
@@ -5437,6 +5602,9 @@
       <c r="O61" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q61" s="0" t="n">
+        <v>960</v>
+      </c>
       <c r="R61" s="0" t="n">
         <v>960</v>
       </c>
@@ -5514,6 +5682,9 @@
       <c r="O62" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q62" s="0" t="n">
+        <v>876</v>
+      </c>
       <c r="R62" s="0" t="n">
         <v>876</v>
       </c>
@@ -5591,6 +5762,9 @@
       <c r="O63" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q63" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R63" s="0" t="n">
         <v>1020</v>
       </c>
@@ -5668,6 +5842,9 @@
       <c r="O64" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q64" s="0" t="n">
+        <v>702</v>
+      </c>
       <c r="R64" s="0" t="n">
         <v>702</v>
       </c>
@@ -5745,6 +5922,9 @@
       <c r="O65" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q65" s="0" t="n">
+        <v>876</v>
+      </c>
       <c r="R65" s="0" t="n">
         <v>876</v>
       </c>
@@ -5822,6 +6002,9 @@
       <c r="O66" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q66" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R66" s="0" t="n">
         <v>1020</v>
       </c>
@@ -5896,6 +6079,9 @@
       <c r="O67" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q67" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R67" s="0" t="n">
         <v>1020</v>
       </c>
@@ -5970,6 +6156,9 @@
       <c r="O68" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q68" s="0" t="n">
+        <v>1000</v>
+      </c>
       <c r="R68" s="0" t="n">
         <v>1000</v>
       </c>
@@ -6047,6 +6236,9 @@
       <c r="O69" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="Q69" s="0" t="n">
+        <v>876</v>
+      </c>
       <c r="R69" s="0" t="n">
         <v>876</v>
       </c>
@@ -6124,6 +6316,9 @@
       <c r="O70" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="Q70" s="0" t="n">
+        <v>1020</v>
+      </c>
       <c r="R70" s="0" t="n">
         <v>1020</v>
       </c>
@@ -6198,6 +6393,9 @@
       <c r="O71" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="Q71" s="0" t="n">
+        <v>600</v>
+      </c>
       <c r="R71" s="0" t="n">
         <v>600</v>
       </c>
@@ -6226,7 +6424,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -6272,6 +6470,9 @@
       <c r="O72" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="Q72" s="0" t="n">
+        <v>420</v>
+      </c>
       <c r="R72" s="0" t="n">
         <v>420</v>
       </c>
@@ -6300,7 +6501,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -6345,6 +6546,9 @@
       </c>
       <c r="O73" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>432</v>
       </c>
       <c r="R73" s="0" t="n">
         <v>432</v>

--- a/app/data/static/params/mozzarella_test.xlsx
+++ b/app/data/static/params/mozzarella_test.xlsx
@@ -870,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R78" activeCellId="0" sqref="R78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L69" activeCellId="0" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1533,7 +1533,7 @@
         <v>125</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>31</v>
@@ -4071,7 +4071,7 @@
         <v>125</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>31</v>
@@ -4151,7 +4151,7 @@
         <v>125</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>25</v>
@@ -4231,7 +4231,7 @@
         <v>125</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>31</v>
@@ -4311,7 +4311,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>31</v>
@@ -4391,7 +4391,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>25</v>
@@ -4471,7 +4471,7 @@
         <v>125</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>25</v>
@@ -4551,7 +4551,7 @@
         <v>125</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>25</v>
@@ -4631,7 +4631,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>31</v>
@@ -4711,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>31</v>
@@ -4791,7 +4791,7 @@
         <v>100</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>31</v>
@@ -4871,7 +4871,7 @@
         <v>125</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>31</v>
@@ -4951,7 +4951,7 @@
         <v>125</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>25</v>
@@ -5031,7 +5031,7 @@
         <v>25</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>31</v>
@@ -5111,7 +5111,7 @@
         <v>200</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>31</v>
@@ -5191,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>31</v>
@@ -5271,7 +5271,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>31</v>
@@ -5351,7 +5351,7 @@
         <v>8</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>31</v>
@@ -5431,7 +5431,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>31</v>
@@ -5511,7 +5511,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>25</v>
@@ -5591,7 +5591,7 @@
         <v>8</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>31</v>
@@ -5671,7 +5671,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>31</v>
@@ -5751,7 +5751,7 @@
         <v>8</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>31</v>
@@ -5831,7 +5831,7 @@
         <v>8</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>25</v>
@@ -5911,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>25</v>
@@ -6145,7 +6145,7 @@
         <v>125</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>25</v>
@@ -6225,7 +6225,7 @@
         <v>8</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>31</v>
